--- a/REVER_DailyTracker_20200624.xlsx
+++ b/REVER_DailyTracker_20200624.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F672FAA-05F7-471F-A973-EDC8D8F26EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AA62EA-9DF3-4B28-9C18-CEC3533A5998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="61">
   <si>
     <t>Task</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>1. StockOverView task has tested for all SSCs to download, CSV file conversion and uploading are success.</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Modules - Best Denki, All Denka, Stream</t>
   </si>
 </sst>
 </file>
@@ -256,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +283,22 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -355,10 +377,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -395,9 +420,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{91663F51-7B48-48E0-8A1C-6E71BC91DFEE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -712,22 +746,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+    <sheetView topLeftCell="A99" workbookViewId="0">
       <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -748,7 +782,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -758,8 +792,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -771,7 +805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -782,10 +816,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -799,9 +833,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -815,9 +849,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -831,8 +865,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -849,19 +883,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -879,13 +913,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -899,7 +933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -913,7 +947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -921,7 +955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -929,12 +963,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -942,7 +976,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -953,7 +987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -964,7 +998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -975,12 +1009,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -991,7 +1025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1002,12 +1036,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1015,7 +1049,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1023,7 +1057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1031,7 +1065,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1039,12 +1073,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1052,7 +1086,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1060,7 +1094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1068,7 +1102,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1076,12 +1110,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1089,7 +1123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1097,7 +1131,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1105,7 +1139,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1113,7 +1147,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1121,12 +1155,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1134,7 +1168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1157,18 +1191,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1191,7 +1225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1200,7 +1234,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1209,46 +1243,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1265,22 +1299,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1303,16 +1337,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44006</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1321,46 +1367,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1381,18 +1427,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1415,7 +1461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1424,7 +1470,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1433,46 +1479,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1493,18 +1539,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1527,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1536,7 +1582,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1545,46 +1591,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1605,18 +1651,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1639,7 +1685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1660,7 +1706,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1669,46 +1715,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1729,18 +1775,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1763,7 +1809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1772,7 +1818,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1781,46 +1827,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1841,18 +1887,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1875,7 +1921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1884,7 +1930,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1893,46 +1939,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1953,18 +1999,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1987,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1996,7 +2042,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2005,46 +2051,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2065,18 +2111,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2099,7 +2145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2108,7 +2154,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2117,46 +2163,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200624.xlsx
+++ b/REVER_DailyTracker_20200624.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AA62EA-9DF3-4B28-9C18-CEC3533A5998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC275DF-24E9-4C8D-AEF4-964AF50B943B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="63">
   <si>
     <t>Task</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>Modules - Best Denki, All Denka, Stream</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>Invoice update changes-NO Data capture issue</t>
   </si>
 </sst>
 </file>
@@ -750,15 +756,15 @@
       <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -793,7 +799,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -819,7 +825,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -851,7 +857,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -919,7 +925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -933,7 +939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -947,7 +953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -955,7 +961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -976,7 +982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -987,7 +993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1041,7 +1047,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1110,12 +1116,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45">
+    <row r="97" spans="4:7" ht="43.2">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60">
+    <row r="100" spans="4:7" ht="43.2">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30">
+    <row r="108" spans="4:7" ht="28.8">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1191,15 +1197,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1299,19 +1305,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1337,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1427,15 +1433,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1535,19 +1541,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1576,9 +1582,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1651,15 +1663,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1775,15 +1787,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1887,15 +1899,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1999,15 +2011,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2111,15 +2123,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
